--- a/documents/02_installation/01_install_1_2/bulk_installing_script_ubuntu_1_2/figs/deb-rpm-packages.xlsx
+++ b/documents/02_installation/01_install_1_2/bulk_installing_script_ubuntu_1_2/figs/deb-rpm-packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openrtm\Documents\git\currently_working\openrtm.org\documents\02_installation\01_install_1_2\01_cpp_1_2\02_install_ubuntu_1_2\bulk_installing_script_ubuntu_1_2\figs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openrtm\Documents\git\currently_working\openrtm.org\documents\02_installation\01_install_1_2\bulk_installing_script_ubuntu_1_2\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E29989-D8A0-474E-BD7C-ED763301E85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F32FB-50FF-4F1C-9674-AA1455B069FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="330" windowWidth="27518" windowHeight="15825" activeTab="1" xr2:uid="{3E11B4CD-FCFC-430E-9ECA-0DF2E14B1FBC}"/>
+    <workbookView xWindow="7110" yWindow="907" windowWidth="24803" windowHeight="13005" activeTab="1" xr2:uid="{3E11B4CD-FCFC-430E-9ECA-0DF2E14B1FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="deb" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openrtm-aist-doc,
-openrtm-aist-dev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>autoconf, libtool, libttol-bin
 subversion, git,
 build-essential, debhelper, devscripts</t>
@@ -174,16 +169,6 @@
   </si>
   <si>
     <t>rpm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-doc,
-openRTM-aist-devel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist,
-openRTM-aist-example</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -231,26 +216,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openRTM-aist, 
-openRTM-aist-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-Python, 
-openRTM-aist-Python- example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>omniORB, ominiORB-servers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-Python,
-openRTM-aist-Python-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-Python-doc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -268,20 +234,6 @@
   <si>
     <t>subversion, git,
 createrepo, rpm-build</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-java-doc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-java,
-openRTM-aist-java-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openRTM-aist-java, 
-openRTM-aist-java- example</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -319,6 +271,55 @@
       </rPr>
       <t>omniORB-devel</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Java,
+OpenRTM-aist-Java-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Java-doc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Java, 
+OpenRTM-aist-Java- example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist, 
+OpenRTM-aist-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist,
+OpenRTM-aist-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-doc,
+OpenRTM-aist-devel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Python,
+OpenRTM-aist-Python-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Python-doc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Python, 
+OpenRTM-aist-Python- example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openrtm-aist-doc, 
+openrtm-aist-idl
+openrtm-aist-dev</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -623,31 +624,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,99 +679,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,45 +1114,45 @@
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="96.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="16"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="16"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="F5" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="17"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="8" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -1170,49 +1171,49 @@
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="16"/>
       <c r="C12" s="32"/>
       <c r="D12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="17"/>
       <c r="C13" s="33"/>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -1233,74 +1234,74 @@
     <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="9"/>
       <c r="B16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="28"/>
+      <c r="C18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="9"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="25"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="9"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="E20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,8 +1315,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:G21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1330,7 +1331,7 @@
     <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1346,11 +1347,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>36</v>
+      <c r="C3" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -1358,34 +1359,34 @@
     </row>
     <row r="4" spans="1:6" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="16"/>
-      <c r="C4" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="60"/>
+      <c r="C4" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="16"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="17"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F6" s="17"/>
     </row>
@@ -1393,7 +1394,7 @@
     <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
@@ -1408,11 +1409,11 @@
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>33</v>
+      <c r="B9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
@@ -1421,43 +1422,43 @@
     <row r="10" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="9"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="9"/>
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="58"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="9"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="9"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="53"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
@@ -1466,7 +1467,7 @@
     <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -1480,11 +1481,11 @@
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="9"/>
-      <c r="B16" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>36</v>
+      <c r="B16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="48"/>
@@ -1492,63 +1493,63 @@
     <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="D18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:5" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="9"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="9"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="50"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/02_installation/01_install_1_2/bulk_installing_script_ubuntu_1_2/figs/deb-rpm-packages.xlsx
+++ b/documents/02_installation/01_install_1_2/bulk_installing_script_ubuntu_1_2/figs/deb-rpm-packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openrtm\Documents\git\currently_working\openrtm.org\documents\02_installation\01_install_1_2\bulk_installing_script_ubuntu_1_2\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F32FB-50FF-4F1C-9674-AA1455B069FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1A41B-4E76-40D5-9B58-FD4068D6B8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="907" windowWidth="24803" windowHeight="13005" activeTab="1" xr2:uid="{3E11B4CD-FCFC-430E-9ECA-0DF2E14B1FBC}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="23683" windowHeight="12180" activeTab="1" xr2:uid="{3E11B4CD-FCFC-430E-9ECA-0DF2E14B1FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="deb" sheetId="1" r:id="rId1"/>
@@ -259,8 +259,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OpenRTM-aist-Java,
+OpenRTM-aist-Java-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Java-doc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Java, 
+OpenRTM-aist-Java- example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist, 
+OpenRTM-aist-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist,
+OpenRTM-aist-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-doc,
+OpenRTM-aist-devel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Python,
+OpenRTM-aist-Python-example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Python-doc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenRTM-aist-Python, 
+OpenRTM-aist-Python- example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openrtm-aist-doc, 
+openrtm-aist-idl
+openrtm-aist-dev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">cmake, dexygen, graphviz, nkf, </t>
+      <t xml:space="preserve">cmake, doxygen, graphviz, nkf, </t>
     </r>
     <r>
       <rPr>
@@ -271,55 +320,6 @@
       </rPr>
       <t>omniORB-devel</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-Java,
-OpenRTM-aist-Java-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-Java-doc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-Java, 
-OpenRTM-aist-Java- example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist, 
-OpenRTM-aist-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist,
-OpenRTM-aist-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-doc,
-OpenRTM-aist-devel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-Python,
-OpenRTM-aist-Python-example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-Python-doc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenRTM-aist-Python, 
-OpenRTM-aist-Python- example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openrtm-aist-doc, 
-openrtm-aist-idl
-openrtm-aist-dev</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -624,32 +624,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -657,65 +663,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -736,21 +751,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,16 +1083,16 @@
       <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="27.2109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.2109375" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1110,52 +1110,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="96.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" ht="96.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B4" s="16"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B5" s="16"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B6" s="17"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+        <v>44</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1169,54 +1169,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="20.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="20.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B10" s="16"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B12" s="16"/>
       <c r="C12" s="32"/>
       <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B13" s="17"/>
       <c r="C13" s="33"/>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
         <v>0</v>
@@ -1231,77 +1231,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A16" s="9"/>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A19" s="9"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A20" s="9"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="46"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1319,16 +1319,16 @@
       <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="32.640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.2109375" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>24</v>
@@ -1346,52 +1346,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B4" s="16"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="16"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="16"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="17"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B6" s="17"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -1407,64 +1407,64 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A9" s="9"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A10" s="9"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="51"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="57"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -1479,77 +1479,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A16" s="9"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="48"/>
     </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="58"/>
-    </row>
-    <row r="19" spans="1:5" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A19" s="9"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A20" s="9"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/02_installation/01_install_1_2/bulk_installing_script_ubuntu_1_2/figs/deb-rpm-packages.xlsx
+++ b/documents/02_installation/01_install_1_2/bulk_installing_script_ubuntu_1_2/figs/deb-rpm-packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openrtm\Documents\git\currently_working\openrtm.org\documents\02_installation\01_install_1_2\bulk_installing_script_ubuntu_1_2\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1A41B-4E76-40D5-9B58-FD4068D6B8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1128F2-2387-488C-88A4-BA1468011540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="23683" windowHeight="12180" activeTab="1" xr2:uid="{3E11B4CD-FCFC-430E-9ECA-0DF2E14B1FBC}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="17933" windowHeight="10748" activeTab="1" xr2:uid="{3E11B4CD-FCFC-430E-9ECA-0DF2E14B1FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="deb" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cmake, dexygen, graphviz, nkf, bc, iputils-ping, net-tools, zip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rpm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,28 +224,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cmake, dexygen, graphviz, nkf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>subversion, git,
 createrepo, rpm-build</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pytho-pip, cmake, dexygen, graphviz, nkf, bc, iputils-ping,net-tools, zip, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>omniidl-python</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -320,6 +296,30 @@
       </rPr>
       <t>omniORB-devel</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmake, doxygen, graphviz, nkf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pytho-pip, cmake, doxygen, graphviz, nkf, bc, iputils-ping,net-tools, zip, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>omniidl-python</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmake, doxygen, graphviz, nkf, bc, iputils-ping, net-tools, zip</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -624,31 +624,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,99 +679,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,20 +1079,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068B12A6-ECA5-42CA-9BFE-D9065B6EB346}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="3" max="3" width="27.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.2109375" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.1875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6875" customWidth="1"/>
+    <col min="5" max="5" width="36.1875" customWidth="1"/>
+    <col min="6" max="6" width="35.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1110,52 +1110,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" ht="96.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="96.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="16"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="16"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="17"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+        <v>41</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1169,54 +1169,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="20.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="20.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="16"/>
       <c r="C12" s="32"/>
       <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="E12" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="17"/>
       <c r="C13" s="33"/>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
         <v>0</v>
@@ -1231,77 +1231,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="9"/>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="9"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="25"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="9"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,23 +1315,23 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="3" max="3" width="32.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.2109375" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1875" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1346,55 +1346,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
+      <c r="C3" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="16"/>
-      <c r="C4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B5" s="16"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="60"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="16"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:6" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="17"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
@@ -1407,67 +1407,67 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>28</v>
+      <c r="C9" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="9"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="9"/>
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="58"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="9"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="9"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="53"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -1479,77 +1479,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="9"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>29</v>
+      <c r="C16" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="48"/>
     </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="C17" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="51"/>
-    </row>
-    <row r="19" spans="1:5" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="C18" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="1:5" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="9"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="E19" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="9"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="50"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
